--- a/20160405 - 005/running_logs/logs.xlsx
+++ b/20160405 - 005/running_logs/logs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="logs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="logs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
   <si>
     <t>Time</t>
   </si>
@@ -59,7 +58,7 @@
     <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 100</t>
   </si>
   <si>
-    <t>0 filters: </t>
+    <t>0 filters:</t>
   </si>
   <si>
     <t>20160406_105630</t>
@@ -93,37 +92,61 @@
   </si>
   <si>
     <t>20160406_120019</t>
+  </si>
+  <si>
+    <t>20160406_181253</t>
+  </si>
+  <si>
+    <t>trim "space" and ",", remove multiple spaces, convert to lower, convert unicode to ascii</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 filters: </t>
+  </si>
+  <si>
+    <t>20160406_182654</t>
+  </si>
+  <si>
+    <t>20160406_184128</t>
+  </si>
+  <si>
+    <t>20160406_185621</t>
+  </si>
+  <si>
+    <t>20160406_191122</t>
+  </si>
+  <si>
+    <t>20160407_092307</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 2000</t>
+  </si>
+  <si>
+    <t>20160407_095121</t>
+  </si>
+  <si>
+    <t>20160407_102037</t>
+  </si>
+  <si>
+    <t>20160407_105035</t>
+  </si>
+  <si>
+    <t>20160407_112045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +158,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -143,420 +166,981 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>204.929</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>0.998666666666667</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>0.947194719471947</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>0.108433734939759</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>288.837</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>0.884488448844885</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>0.109375</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>290.563</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>0.920792079207921</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>277.046</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>0.998666666666667</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>0.930693069306931</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>0.102564102564103</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>291.379</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>0.927392739273927</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>0.103896103896104</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>592.251</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>0.999333333333333</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>0.937293729372937</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>605.071</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>0.881188118811881</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>0.0952380952380952</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>658.563</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>0.999333333333333</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>0.937293729372937</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>553.888</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>0.999333333333333</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>0.887788778877888</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>0.107692307692308</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>511.222</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>0.999333333333333</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>0.897689768976898</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>0.0735294117647059</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>841.025</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>0.998666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.851485148514851</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>0.109090909090909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>874.593</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.924092409240924</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>0.0263157894736842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>892.41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.854785478547855</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>0.0714285714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>901.362</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0.904290429042904</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15">
+        <v>0.0857142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>883.648</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>0.998666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.867986798679868</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16">
+        <v>0.0677966101694915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>1694.141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.897689768976898</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>0.132352941176471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1756.403</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.854785478547855</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>0.0357142857142857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>1797.754</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>0.999333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.871287128712871</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19">
+        <v>0.0983606557377049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>1810.314</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.904290429042904</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20">
+        <v>0.114285714285714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1814.874</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.894389438943894</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21">
+        <v>0.0746268656716418</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>